--- a/BalanceSheet/FTV_bal.xlsx
+++ b/BalanceSheet/FTV_bal.xlsx
@@ -411,19 +411,19 @@
         <v>466600000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2900000.0</v>
+        <v>456000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>18700000.0</v>
+        <v>662000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-12300000.0</v>
+        <v>665000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-16600000.0</v>
+        <v>650000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>49400000.0</v>
+        <v>640000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>680700000.0</v>
@@ -1221,19 +1221,19 @@
         <v>464500000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4700000.0</v>
+        <v>481000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>36800000.0</v>
+        <v>777000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-16700000.0</v>
+        <v>733000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-6700000.0</v>
+        <v>745000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>61600000.0</v>
+        <v>766000000.0</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>693800000.0</v>
@@ -4153,10 +4153,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B38" s="0" t="n">
+        <v>1267900000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1488000000.0</v>
@@ -4262,10 +4260,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B39" s="0" t="n">
+        <v>2567500000.0</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>4432000000.0</v>
